--- a/market_report_2025-08-22.xlsx
+++ b/market_report_2025-08-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="181">
   <si>
     <t>Ticker</t>
   </si>
@@ -199,81 +199,87 @@
     <t>AES</t>
   </si>
   <si>
+    <t>ABT</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>ADBE</t>
+  </si>
+  <si>
+    <t>AOS</t>
+  </si>
+  <si>
+    <t>ABBV</t>
+  </si>
+  <si>
+    <t>ACN</t>
+  </si>
+  <si>
     <t>AFL</t>
   </si>
   <si>
-    <t>AMD</t>
-  </si>
-  <si>
-    <t>ABBV</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
-    <t>ABT</t>
-  </si>
-  <si>
-    <t>AOS</t>
-  </si>
-  <si>
-    <t>ADBE</t>
-  </si>
-  <si>
     <t>MMM</t>
   </si>
   <si>
-    <t>ACN</t>
-  </si>
-  <si>
     <t>SPXC</t>
   </si>
   <si>
+    <t>IONQ</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>GTLS</t>
+  </si>
+  <si>
+    <t>ENSG</t>
+  </si>
+  <si>
     <t>NXT</t>
   </si>
   <si>
-    <t>GTLS</t>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>KTOS</t>
+  </si>
+  <si>
+    <t>CRDO</t>
   </si>
   <si>
     <t>UMBF</t>
   </si>
   <si>
-    <t>CRDO</t>
-  </si>
-  <si>
-    <t>ENSG</t>
-  </si>
-  <si>
-    <t>FN</t>
-  </si>
-  <si>
-    <t>KTOS</t>
+    <t>AACI</t>
+  </si>
+  <si>
+    <t>AACBR</t>
   </si>
   <si>
     <t>AACB</t>
   </si>
   <si>
-    <t>AACI</t>
+    <t>AACIU</t>
   </si>
   <si>
     <t>AACIW</t>
   </si>
   <si>
+    <t>AACBU</t>
+  </si>
+  <si>
     <t>AAME</t>
   </si>
   <si>
-    <t>AACBR</t>
-  </si>
-  <si>
-    <t>AACIU</t>
-  </si>
-  <si>
     <t>AACG</t>
   </si>
   <si>
-    <t>AACBU</t>
-  </si>
-  <si>
     <t>AAOI</t>
   </si>
   <si>
@@ -283,69 +289,75 @@
     <t>Utilities</t>
   </si>
   <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Industrials</t>
+  </si>
+  <si>
     <t>Financial Services</t>
   </si>
   <si>
-    <t>Technology</t>
-  </si>
-  <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
-    <t>Industrials</t>
-  </si>
-  <si>
     <t>Consumer Defensive</t>
   </si>
   <si>
     <t>Utilities - Diversified</t>
   </si>
   <si>
+    <t>Medical Devices</t>
+  </si>
+  <si>
+    <t>Semiconductors</t>
+  </si>
+  <si>
+    <t>Software - Application</t>
+  </si>
+  <si>
+    <t>Specialty Industrial Machinery</t>
+  </si>
+  <si>
+    <t>Drug Manufacturers - General</t>
+  </si>
+  <si>
+    <t>Information Technology Services</t>
+  </si>
+  <si>
     <t>Insurance - Life</t>
   </si>
   <si>
-    <t>Semiconductors</t>
-  </si>
-  <si>
-    <t>Drug Manufacturers - General</t>
-  </si>
-  <si>
     <t>Diagnostics &amp; Research</t>
   </si>
   <si>
-    <t>Medical Devices</t>
-  </si>
-  <si>
-    <t>Specialty Industrial Machinery</t>
-  </si>
-  <si>
-    <t>Software - Application</t>
-  </si>
-  <si>
     <t>Conglomerates</t>
   </si>
   <si>
-    <t>Information Technology Services</t>
-  </si>
-  <si>
     <t>Building Products &amp; Equipment</t>
   </si>
   <si>
+    <t>Computer Hardware</t>
+  </si>
+  <si>
+    <t>Electronic Components</t>
+  </si>
+  <si>
+    <t>Medical Care Facilities</t>
+  </si>
+  <si>
     <t>Solar</t>
   </si>
   <si>
+    <t>Electrical Equipment &amp; Parts</t>
+  </si>
+  <si>
+    <t>Aerospace &amp; Defense</t>
+  </si>
+  <si>
     <t>Banks - Regional</t>
   </si>
   <si>
-    <t>Medical Care Facilities</t>
-  </si>
-  <si>
-    <t>Electronic Components</t>
-  </si>
-  <si>
-    <t>Aerospace &amp; Defense</t>
-  </si>
-  <si>
     <t>Shell Companies</t>
   </si>
   <si>
@@ -358,30 +370,33 @@
     <t>Airlines</t>
   </si>
   <si>
+    <t>Health Care &amp; Social Assistance</t>
+  </si>
+  <si>
+    <t>Computer &amp; Electronic Products</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Machinery</t>
+  </si>
+  <si>
+    <t>Professional, Scientific &amp; Technical Services</t>
+  </si>
+  <si>
     <t>Finance &amp; Insurance</t>
   </si>
   <si>
-    <t>Computer &amp; Electronic Products</t>
-  </si>
-  <si>
-    <t>Health Care &amp; Social Assistance</t>
-  </si>
-  <si>
-    <t>Machinery</t>
-  </si>
-  <si>
-    <t>Information</t>
-  </si>
-  <si>
     <t>Management of Companies &amp; Support Services</t>
   </si>
   <si>
-    <t>Professional, Scientific &amp; Technical Services</t>
-  </si>
-  <si>
     <t>Fabricated Metal Products</t>
   </si>
   <si>
+    <t>Electrical Equipment, Appliances &amp; Components</t>
+  </si>
+  <si>
     <t>Transportation Equipment</t>
   </si>
   <si>
@@ -406,48 +421,54 @@
     <t>3.5%</t>
   </si>
   <si>
+    <t>2.0%</t>
+  </si>
+  <si>
+    <t>4.4%</t>
+  </si>
+  <si>
+    <t>2.3%</t>
+  </si>
+  <si>
+    <t>1.9%</t>
+  </si>
+  <si>
+    <t>2.5%</t>
+  </si>
+  <si>
     <t>1.6%</t>
   </si>
   <si>
-    <t>4.4%</t>
-  </si>
-  <si>
-    <t>1.9%</t>
-  </si>
-  <si>
     <t>2.2%</t>
   </si>
   <si>
-    <t>2.0%</t>
-  </si>
-  <si>
-    <t>2.3%</t>
-  </si>
-  <si>
-    <t>2.5%</t>
-  </si>
-  <si>
     <t>2.6%</t>
   </si>
   <si>
+    <t>7.0%</t>
+  </si>
+  <si>
+    <t>5.5%</t>
+  </si>
+  <si>
+    <t>1.2%</t>
+  </si>
+  <si>
     <t>5.0%</t>
   </si>
   <si>
-    <t>1.2%</t>
+    <t>6.5%</t>
+  </si>
+  <si>
+    <t>5.6%</t>
+  </si>
+  <si>
+    <t>6.1%</t>
   </si>
   <si>
     <t>2.1%</t>
   </si>
   <si>
-    <t>6.1%</t>
-  </si>
-  <si>
-    <t>5.5%</t>
-  </si>
-  <si>
-    <t>5.6%</t>
-  </si>
-  <si>
     <t>8.4%</t>
   </si>
   <si>
@@ -463,46 +484,49 @@
     <t>2025-07-31</t>
   </si>
   <si>
+    <t>2025-07-17</t>
+  </si>
+  <si>
+    <t>2025-11-04</t>
+  </si>
+  <si>
+    <t>2025-09-10 , 2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-10-21</t>
+  </si>
+  <si>
+    <t>2025-09-24 , 2025-09-29</t>
+  </si>
+  <si>
     <t>2025-11-03</t>
   </si>
   <si>
-    <t>2025-11-04</t>
-  </si>
-  <si>
     <t>2025-08-27</t>
   </si>
   <si>
-    <t>2025-07-17</t>
-  </si>
-  <si>
-    <t>2025-10-21</t>
-  </si>
-  <si>
-    <t>2025-09-10 , 2025-09-15</t>
-  </si>
-  <si>
     <t>2025-07-18</t>
   </si>
   <si>
-    <t>2025-09-24 , 2025-09-29</t>
-  </si>
-  <si>
     <t>2025-10-29</t>
   </si>
   <si>
+    <t>2025-11-05</t>
+  </si>
+  <si>
     <t>2025-07-29</t>
   </si>
   <si>
+    <t>2025-10-23</t>
+  </si>
+  <si>
+    <t>2025-11-06</t>
+  </si>
+  <si>
+    <t>2025-09-03</t>
+  </si>
+  <si>
     <t>2025-10-28</t>
-  </si>
-  <si>
-    <t>2025-09-03</t>
-  </si>
-  <si>
-    <t>2025-10-23</t>
-  </si>
-  <si>
-    <t>2025-11-06</t>
   </si>
   <si>
     <t>2025-08-13</t>
@@ -909,7 +933,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH29"/>
+  <dimension ref="A1:BH31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1125,19 +1149,19 @@
         <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G2" s="1">
         <v>12.97</v>
@@ -1194,7 +1218,7 @@
         <v>0.45</v>
       </c>
       <c r="Y2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="Z2" s="1">
         <v>18.0056666692098</v>
@@ -1215,13 +1239,13 @@
         <v>0.0508</v>
       </c>
       <c r="AF2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="AG2" s="1">
         <v>3</v>
       </c>
       <c r="AH2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="AI2">
         <v>14</v>
@@ -1281,7 +1305,7 @@
         <v>0.7733230531996915</v>
       </c>
       <c r="BB2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="BC2">
         <v>1.89</v>
@@ -1299,7 +1323,7 @@
         <v>-20.91033508818943</v>
       </c>
       <c r="BH2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:60">
@@ -1307,181 +1331,181 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G3" s="1">
-        <v>108.19</v>
+        <v>132</v>
       </c>
       <c r="H3">
-        <v>57.86</v>
+        <v>229.74</v>
       </c>
       <c r="I3">
-        <v>534.83</v>
+        <v>1740.46</v>
       </c>
       <c r="J3">
-        <v>530.2</v>
+        <v>1730.23</v>
       </c>
       <c r="K3" s="1">
-        <v>102.905</v>
+        <v>131.264</v>
       </c>
       <c r="L3" s="2">
-        <v>0.05135804868568093</v>
+        <v>0.005607020965382663</v>
       </c>
       <c r="M3" s="1">
-        <v>105.39075</v>
+        <v>126.8337</v>
       </c>
       <c r="N3" s="2">
-        <v>0.02656068013559065</v>
+        <v>0.04073286516123086</v>
       </c>
       <c r="O3">
-        <v>80.34999999999999</v>
+        <v>113.83</v>
       </c>
       <c r="P3" s="2">
-        <v>0.3464841319228377</v>
+        <v>0.1596240007028024</v>
       </c>
       <c r="Q3">
-        <v>1.42</v>
+        <v>0.45</v>
       </c>
       <c r="R3">
-        <v>0.71</v>
+        <v>0.11</v>
       </c>
       <c r="S3">
-        <v>68.92</v>
+        <v>54.48</v>
       </c>
       <c r="T3">
-        <v>94.36</v>
+        <v>66.68000000000001</v>
       </c>
       <c r="U3">
-        <v>91.05</v>
+        <v>71.64</v>
       </c>
       <c r="V3">
-        <v>9.369999999999999</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>95.19</v>
+        <v>46.57</v>
       </c>
       <c r="X3">
-        <v>1.68</v>
+        <v>2.59</v>
       </c>
       <c r="Y3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Z3" s="1">
-        <v>108.1583346048991</v>
+        <v>107.6106676737467</v>
       </c>
       <c r="AA3" s="1">
-        <v>110.3443135300622</v>
+        <v>183.8281920229611</v>
       </c>
       <c r="AB3" s="1">
-        <v>105.972355679736</v>
+        <v>31.39314332453235</v>
       </c>
       <c r="AC3">
-        <v>7.36</v>
+        <v>18.33</v>
       </c>
       <c r="AD3">
-        <v>3.46</v>
+        <v>2.44</v>
       </c>
       <c r="AE3" s="2">
-        <v>0.0139</v>
+        <v>0.0106</v>
       </c>
       <c r="AF3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="AG3" s="1">
         <v>3</v>
       </c>
       <c r="AH3" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="AI3">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="AJ3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AK3">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AL3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN3">
         <v>1</v>
       </c>
       <c r="AO3" s="2">
-        <v>0.1538461538461539</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="AP3" s="2">
-        <v>0.07692307692307693</v>
+        <v>0.5</v>
       </c>
       <c r="AQ3" s="2">
-        <v>0.6153846153846154</v>
+        <v>0.25</v>
       </c>
       <c r="AR3" s="2">
-        <v>0.07692307692307693</v>
+        <v>0</v>
       </c>
       <c r="AS3" s="2">
-        <v>0.07692307692307693</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="AT3" s="2">
-        <v>0.2307692307692308</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AU3" s="2">
-        <v>0.1538461538461539</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="AV3" s="1">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="AW3" s="2">
-        <v>-0.08494315555966353</v>
+        <v>-0.07575757575757576</v>
       </c>
       <c r="AX3" s="1">
-        <v>108.07692</v>
+        <v>142.4848</v>
       </c>
       <c r="AY3" s="2">
-        <v>-0.001045198262316263</v>
+        <v>0.07943030303030309</v>
       </c>
       <c r="AZ3" s="1">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="BA3" s="2">
-        <v>0.1461318051575931</v>
+        <v>0.2045454545454546</v>
       </c>
       <c r="BB3" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="BC3">
-        <v>9.369999999999999</v>
+        <v>1</v>
       </c>
       <c r="BD3">
-        <v>0.2687682218964468</v>
+        <v>-0.3322277509024621</v>
       </c>
       <c r="BE3">
-        <v>3.305087036190233</v>
+        <v>2.103961360137877</v>
       </c>
       <c r="BF3">
-        <v>5.724813594395989</v>
+        <v>4.903439624223676</v>
       </c>
       <c r="BG3">
-        <v>5.52190955434981</v>
+        <v>20.2295113887407</v>
       </c>
       <c r="BH3" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:60">
@@ -1489,19 +1513,19 @@
         <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F4" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G4" s="1">
         <v>163.71</v>
@@ -1558,7 +1582,7 @@
         <v>7.21</v>
       </c>
       <c r="Y4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="Z4" s="1">
         <v>170.009336344401</v>
@@ -1579,13 +1603,13 @@
         <v>0.026099999</v>
       </c>
       <c r="AF4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="AG4" s="1">
         <v>3</v>
       </c>
       <c r="AH4" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="AI4">
         <v>51</v>
@@ -1645,7 +1669,7 @@
         <v>0.4049233400525318</v>
       </c>
       <c r="BB4" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="BC4">
         <v>-6.08</v>
@@ -1663,7 +1687,7 @@
         <v>5.42890778003681</v>
       </c>
       <c r="BH4" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:60">
@@ -1671,181 +1695,181 @@
         <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F5" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G5" s="1">
-        <v>209.5</v>
+        <v>353.43</v>
       </c>
       <c r="H5">
-        <v>370.09</v>
+        <v>149.93</v>
       </c>
       <c r="I5">
-        <v>1766.56</v>
+        <v>424.2</v>
       </c>
       <c r="J5">
-        <v>1762.95</v>
+        <v>422.97</v>
       </c>
       <c r="K5" s="1">
-        <v>192.6716</v>
+        <v>368.5394</v>
       </c>
       <c r="L5" s="2">
-        <v>0.08734240022919822</v>
+        <v>-0.04099805882356132</v>
       </c>
       <c r="M5" s="1">
-        <v>188.6083</v>
+        <v>416.44006</v>
       </c>
       <c r="N5" s="2">
-        <v>0.1107676597477417</v>
+        <v>-0.1513064329113775</v>
       </c>
       <c r="O5">
-        <v>161.93</v>
+        <v>458.34</v>
       </c>
       <c r="P5" s="2">
-        <v>0.2937689124930525</v>
+        <v>-0.2288912161277654</v>
       </c>
       <c r="Q5">
-        <v>4.79</v>
+        <v>-4.32</v>
       </c>
       <c r="R5">
-        <v>3.73</v>
+        <v>-6.78</v>
       </c>
       <c r="S5">
-        <v>73.75</v>
+        <v>47.08</v>
       </c>
       <c r="T5">
-        <v>92.56</v>
+        <v>43.12</v>
       </c>
       <c r="U5">
-        <v>91.98999999999999</v>
+        <v>34.54</v>
       </c>
       <c r="V5">
-        <v>5.51</v>
+        <v>4.34</v>
       </c>
       <c r="W5">
-        <v>78.27</v>
+        <v>46.18</v>
       </c>
       <c r="X5">
-        <v>3.93</v>
+        <v>8.15</v>
       </c>
       <c r="Y5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Z5" s="1">
-        <v>208.2009963989258</v>
+        <v>532.4466583251952</v>
       </c>
       <c r="AA5" s="1">
-        <v>215.0567800315568</v>
+        <v>895.6610366366838</v>
       </c>
       <c r="AB5" s="1">
-        <v>201.3452127662947</v>
+        <v>169.2322800137067</v>
       </c>
       <c r="AC5">
-        <v>15.13</v>
+        <v>10.41</v>
       </c>
       <c r="AD5">
-        <v>2.68</v>
+        <v>2.98</v>
       </c>
       <c r="AE5" s="2">
-        <v>0.0086</v>
+        <v>0.024600001</v>
       </c>
       <c r="AF5" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="AG5" s="1">
         <v>3</v>
       </c>
       <c r="AH5" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="AI5">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="AJ5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK5">
+        <v>20</v>
+      </c>
+      <c r="AL5">
         <v>12</v>
       </c>
-      <c r="AL5">
-        <v>10</v>
-      </c>
       <c r="AM5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN5">
         <v>0</v>
       </c>
       <c r="AO5" s="2">
-        <v>0.1851851851851852</v>
+        <v>0.15</v>
       </c>
       <c r="AP5" s="2">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="AQ5" s="2">
-        <v>0.3703703703703703</v>
+        <v>0.3</v>
       </c>
       <c r="AR5" s="2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AS5" s="2">
         <v>0</v>
       </c>
       <c r="AT5" s="2">
-        <v>0.6296296296296295</v>
+        <v>0.65</v>
       </c>
       <c r="AU5" s="2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AV5" s="1">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="AW5" s="2">
-        <v>-0.1885441527446301</v>
+        <v>-0.2077639136462666</v>
       </c>
       <c r="AX5" s="1">
-        <v>214.76923</v>
+        <v>480.63913</v>
       </c>
       <c r="AY5" s="2">
-        <v>0.02515145584725534</v>
+        <v>0.359927368927369</v>
       </c>
       <c r="AZ5" s="1">
-        <v>255</v>
+        <v>605</v>
       </c>
       <c r="BA5" s="2">
-        <v>0.2171837708830549</v>
+        <v>0.7117958294428882</v>
       </c>
       <c r="BB5" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="BC5">
-        <v>5.51</v>
+        <v>4.34</v>
       </c>
       <c r="BD5">
-        <v>0.1673469346065844</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>2.354899109193234</v>
+        <v>1.3913610334339</v>
       </c>
       <c r="BF5">
-        <v>9.944894591838411</v>
+        <v>-5.109273268506762</v>
       </c>
       <c r="BG5">
-        <v>10.22120036157597</v>
+        <v>-37.23717933293577</v>
       </c>
       <c r="BH5" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:60">
@@ -1853,181 +1877,181 @@
         <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F6" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="G6" s="1">
-        <v>117.15</v>
+        <v>71.75</v>
       </c>
       <c r="H6">
-        <v>33.28</v>
+        <v>10.05</v>
       </c>
       <c r="I6">
-        <v>284.06</v>
+        <v>114.26</v>
       </c>
       <c r="J6">
-        <v>283</v>
+        <v>223.79</v>
       </c>
       <c r="K6" s="1">
-        <v>117.781</v>
+        <v>68.9024</v>
       </c>
       <c r="L6" s="2">
-        <v>-0.005357400599417565</v>
+        <v>0.0413280234070221</v>
       </c>
       <c r="M6" s="1">
-        <v>124.43755</v>
+        <v>68.4551</v>
       </c>
       <c r="N6" s="2">
-        <v>-0.05856391418828156</v>
+        <v>0.04813227940650146</v>
       </c>
       <c r="O6">
-        <v>132.24</v>
+        <v>70.70999999999999</v>
       </c>
       <c r="P6" s="2">
-        <v>-0.1141107078039928</v>
+        <v>0.01470796209871314</v>
       </c>
       <c r="Q6">
-        <v>0.42</v>
+        <v>0.82</v>
       </c>
       <c r="R6">
-        <v>0.13</v>
+        <v>0.9</v>
       </c>
       <c r="S6">
-        <v>49.45</v>
+        <v>54.64</v>
       </c>
       <c r="T6">
-        <v>66.14</v>
+        <v>43.7</v>
       </c>
       <c r="U6">
-        <v>55.91</v>
+        <v>39.9</v>
       </c>
       <c r="V6">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="W6">
-        <v>66.55</v>
+        <v>49.26</v>
       </c>
       <c r="X6">
-        <v>2.55</v>
+        <v>1.34</v>
       </c>
       <c r="Y6" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="Z6" s="1">
-        <v>119.1213340759277</v>
+        <v>70.27000172932942</v>
       </c>
       <c r="AA6" s="1">
-        <v>122.4926823093446</v>
+        <v>72.97617135179587</v>
       </c>
       <c r="AB6" s="1">
-        <v>115.7499858425109</v>
+        <v>67.56383210686298</v>
       </c>
       <c r="AC6">
-        <v>3.06</v>
+        <v>2.88</v>
       </c>
       <c r="AD6">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="AE6" s="2">
-        <v>0.012200001</v>
+        <v>0.0254</v>
       </c>
       <c r="AF6" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="AG6" s="1">
         <v>3</v>
       </c>
       <c r="AH6" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="AI6">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AJ6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AL6">
         <v>10</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN6">
         <v>0</v>
       </c>
       <c r="AO6" s="2">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="AP6" s="2">
-        <v>0.3333333333333333</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="AQ6" s="2">
-        <v>0.5555555555555556</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AR6" s="2">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="AS6" s="2">
         <v>0</v>
       </c>
       <c r="AT6" s="2">
-        <v>0.4444444444444444</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="AU6" s="2">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="AV6" s="1">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="AW6" s="2">
-        <v>0.02432778489116512</v>
+        <v>-0.09407665505226481</v>
       </c>
       <c r="AX6" s="1">
-        <v>137.56667</v>
+        <v>79.83333</v>
       </c>
       <c r="AY6" s="2">
-        <v>0.1742780196329491</v>
+        <v>0.1126596515679443</v>
       </c>
       <c r="AZ6" s="1">
-        <v>165</v>
+        <v>89</v>
       </c>
       <c r="BA6" s="2">
-        <v>0.4084507042253521</v>
+        <v>0.240418118466899</v>
       </c>
       <c r="BB6" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="BC6">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="BD6">
-        <v>-1.645536961152796</v>
+        <v>-0.13917672407065</v>
       </c>
       <c r="BE6">
-        <v>-1.446959856112716</v>
+        <v>-1.061771481948938</v>
       </c>
       <c r="BF6">
-        <v>-1.941909827671604</v>
+        <v>1.003188805853372</v>
       </c>
       <c r="BG6">
-        <v>-15.98376151010624</v>
+        <v>-9.344156542721846</v>
       </c>
       <c r="BH6" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:60">
@@ -2038,178 +2062,178 @@
         <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G7" s="1">
-        <v>132</v>
+        <v>209.5</v>
       </c>
       <c r="H7">
-        <v>229.74</v>
+        <v>370.09</v>
       </c>
       <c r="I7">
-        <v>1740.46</v>
+        <v>1766.56</v>
       </c>
       <c r="J7">
-        <v>1730.23</v>
+        <v>1762.95</v>
       </c>
       <c r="K7" s="1">
-        <v>131.264</v>
+        <v>192.6716</v>
       </c>
       <c r="L7" s="2">
-        <v>0.005607020965382663</v>
+        <v>0.08734240022919822</v>
       </c>
       <c r="M7" s="1">
-        <v>126.8337</v>
+        <v>188.6083</v>
       </c>
       <c r="N7" s="2">
-        <v>0.04073286516123086</v>
+        <v>0.1107676597477417</v>
       </c>
       <c r="O7">
-        <v>113.83</v>
+        <v>161.93</v>
       </c>
       <c r="P7" s="2">
-        <v>0.1596240007028024</v>
+        <v>0.2937689124930525</v>
       </c>
       <c r="Q7">
-        <v>0.45</v>
+        <v>4.79</v>
       </c>
       <c r="R7">
-        <v>0.11</v>
+        <v>3.73</v>
       </c>
       <c r="S7">
-        <v>54.48</v>
+        <v>73.75</v>
       </c>
       <c r="T7">
-        <v>66.68000000000001</v>
+        <v>92.56</v>
       </c>
       <c r="U7">
-        <v>71.64</v>
+        <v>91.98999999999999</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>5.51</v>
       </c>
       <c r="W7">
-        <v>46.57</v>
+        <v>78.27</v>
       </c>
       <c r="X7">
-        <v>2.59</v>
+        <v>3.93</v>
       </c>
       <c r="Y7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Z7" s="1">
-        <v>107.6106676737467</v>
+        <v>208.2009963989258</v>
       </c>
       <c r="AA7" s="1">
-        <v>183.8281920229611</v>
+        <v>215.0567800315568</v>
       </c>
       <c r="AB7" s="1">
-        <v>31.39314332453235</v>
+        <v>201.3452127662947</v>
       </c>
       <c r="AC7">
-        <v>18.33</v>
+        <v>15.13</v>
       </c>
       <c r="AD7">
-        <v>2.44</v>
+        <v>2.68</v>
       </c>
       <c r="AE7" s="2">
-        <v>0.0106</v>
+        <v>0.0086</v>
       </c>
       <c r="AF7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AG7" s="1">
         <v>3</v>
       </c>
       <c r="AH7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="AI7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AL7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AM7">
         <v>0</v>
       </c>
       <c r="AN7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="2">
-        <v>0.2142857142857143</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="AP7" s="2">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="AQ7" s="2">
-        <v>0.25</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="AR7" s="2">
         <v>0</v>
       </c>
       <c r="AS7" s="2">
-        <v>0.03571428571428571</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="2">
-        <v>0.7142857142857143</v>
+        <v>0.6296296296296295</v>
       </c>
       <c r="AU7" s="2">
-        <v>0.03571428571428571</v>
+        <v>0</v>
       </c>
       <c r="AV7" s="1">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="AW7" s="2">
-        <v>-0.07575757575757576</v>
+        <v>-0.1885441527446301</v>
       </c>
       <c r="AX7" s="1">
-        <v>142.4848</v>
+        <v>214.76923</v>
       </c>
       <c r="AY7" s="2">
-        <v>0.07943030303030309</v>
+        <v>0.02515145584725534</v>
       </c>
       <c r="AZ7" s="1">
-        <v>159</v>
+        <v>255</v>
       </c>
       <c r="BA7" s="2">
-        <v>0.2045454545454546</v>
+        <v>0.2171837708830549</v>
       </c>
       <c r="BB7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="BC7">
-        <v>1</v>
+        <v>5.51</v>
       </c>
       <c r="BD7">
-        <v>-0.3322277509024621</v>
+        <v>0.1673469346065844</v>
       </c>
       <c r="BE7">
-        <v>2.103961360137877</v>
+        <v>2.354899109193234</v>
       </c>
       <c r="BF7">
-        <v>4.903439624223676</v>
+        <v>9.944894591838411</v>
       </c>
       <c r="BG7">
-        <v>20.2295113887407</v>
+        <v>10.22120036157597</v>
       </c>
       <c r="BH7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:60">
@@ -2220,178 +2244,178 @@
         <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E8" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F8" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G8" s="1">
-        <v>71.75</v>
+        <v>253.99</v>
       </c>
       <c r="H8">
-        <v>10.05</v>
+        <v>158.2</v>
       </c>
       <c r="I8">
-        <v>114.26</v>
+        <v>622.85</v>
       </c>
       <c r="J8">
-        <v>223.79</v>
+        <v>621.78</v>
       </c>
       <c r="K8" s="1">
-        <v>68.9024</v>
+        <v>279.3116</v>
       </c>
       <c r="L8" s="2">
-        <v>0.0413280234070221</v>
+        <v>-0.0906571728492479</v>
       </c>
       <c r="M8" s="1">
-        <v>68.4551</v>
+        <v>323.87875</v>
       </c>
       <c r="N8" s="2">
-        <v>0.04813227940650146</v>
+        <v>-0.2157867720559006</v>
       </c>
       <c r="O8">
-        <v>70.70999999999999</v>
+        <v>316.4</v>
       </c>
       <c r="P8" s="2">
-        <v>0.01470796209871314</v>
+        <v>-0.1972503160556257</v>
       </c>
       <c r="Q8">
-        <v>0.82</v>
+        <v>-8.550000000000001</v>
       </c>
       <c r="R8">
-        <v>0.9</v>
+        <v>-10.91</v>
       </c>
       <c r="S8">
-        <v>54.64</v>
+        <v>41.94</v>
       </c>
       <c r="T8">
-        <v>43.7</v>
+        <v>23.02</v>
       </c>
       <c r="U8">
-        <v>39.9</v>
+        <v>15.09</v>
       </c>
       <c r="V8">
-        <v>2.03</v>
+        <v>2.8</v>
       </c>
       <c r="W8">
-        <v>49.26</v>
+        <v>38.55</v>
       </c>
       <c r="X8">
-        <v>1.34</v>
+        <v>6.24</v>
       </c>
       <c r="Y8" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="Z8" s="1">
-        <v>70.27000172932942</v>
+        <v>244.4089991251628</v>
       </c>
       <c r="AA8" s="1">
-        <v>72.97617135179587</v>
+        <v>266.1653140137007</v>
       </c>
       <c r="AB8" s="1">
-        <v>67.56383210686298</v>
+        <v>222.6526842366248</v>
       </c>
       <c r="AC8">
-        <v>2.88</v>
+        <v>12.4</v>
       </c>
       <c r="AD8">
-        <v>1.73</v>
+        <v>3.49</v>
       </c>
       <c r="AE8" s="2">
-        <v>0.0254</v>
+        <v>0.0199</v>
       </c>
       <c r="AF8" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="AG8" s="1">
         <v>3</v>
       </c>
       <c r="AH8" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="AI8">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK8">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AL8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AM8">
         <v>1</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO8" s="2">
-        <v>0</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="AP8" s="2">
-        <v>0.2666666666666667</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="AQ8" s="2">
-        <v>0.6666666666666666</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="AR8" s="2">
-        <v>0.06666666666666667</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AS8" s="2">
-        <v>0</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AT8" s="2">
-        <v>0.2666666666666667</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="AU8" s="2">
-        <v>0.06666666666666667</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="AV8" s="1">
-        <v>65</v>
+        <v>240</v>
       </c>
       <c r="AW8" s="2">
-        <v>-0.09407665505226481</v>
+        <v>-0.05508090869719284</v>
       </c>
       <c r="AX8" s="1">
-        <v>79.83333</v>
+        <v>323.41</v>
       </c>
       <c r="AY8" s="2">
-        <v>0.1126596515679443</v>
+        <v>0.273317847159337</v>
       </c>
       <c r="AZ8" s="1">
-        <v>89</v>
+        <v>372</v>
       </c>
       <c r="BA8" s="2">
-        <v>0.240418118466899</v>
+        <v>0.4646245915193511</v>
       </c>
       <c r="BB8" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="BC8">
-        <v>2.03</v>
+        <v>2.8</v>
       </c>
       <c r="BD8">
-        <v>-0.13917672407065</v>
+        <v>-0.415603821176447</v>
       </c>
       <c r="BE8">
-        <v>-1.061771481948938</v>
+        <v>3.180858675076439</v>
       </c>
       <c r="BF8">
-        <v>1.003188805853372</v>
+        <v>-11.20472734384094</v>
       </c>
       <c r="BG8">
-        <v>-9.344147803760547</v>
+        <v>-21.48346838063055</v>
       </c>
       <c r="BH8" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:60">
@@ -2399,181 +2423,181 @@
         <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E9" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F9" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G9" s="1">
-        <v>353.43</v>
+        <v>108.19</v>
       </c>
       <c r="H9">
-        <v>149.93</v>
+        <v>57.86</v>
       </c>
       <c r="I9">
-        <v>424.2</v>
+        <v>534.83</v>
       </c>
       <c r="J9">
-        <v>422.97</v>
+        <v>530.2</v>
       </c>
       <c r="K9" s="1">
-        <v>368.5394</v>
+        <v>102.905</v>
       </c>
       <c r="L9" s="2">
-        <v>-0.04099805882356132</v>
+        <v>0.05135804868568093</v>
       </c>
       <c r="M9" s="1">
-        <v>416.44006</v>
+        <v>105.39075</v>
       </c>
       <c r="N9" s="2">
-        <v>-0.1513064329113775</v>
+        <v>0.02656068013559065</v>
       </c>
       <c r="O9">
-        <v>458.34</v>
+        <v>80.34999999999999</v>
       </c>
       <c r="P9" s="2">
-        <v>-0.2288912161277654</v>
+        <v>0.3464841319228377</v>
       </c>
       <c r="Q9">
-        <v>-4.32</v>
+        <v>1.42</v>
       </c>
       <c r="R9">
-        <v>-6.78</v>
+        <v>0.71</v>
       </c>
       <c r="S9">
-        <v>47.08</v>
+        <v>68.92</v>
       </c>
       <c r="T9">
-        <v>43.12</v>
+        <v>94.36</v>
       </c>
       <c r="U9">
-        <v>34.54</v>
+        <v>91.05</v>
       </c>
       <c r="V9">
-        <v>4.34</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W9">
-        <v>46.18</v>
+        <v>95.19</v>
       </c>
       <c r="X9">
-        <v>8.15</v>
+        <v>1.68</v>
       </c>
       <c r="Y9" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Z9" s="1">
-        <v>532.4466583251952</v>
+        <v>108.1583346048991</v>
       </c>
       <c r="AA9" s="1">
-        <v>895.6610366366838</v>
+        <v>110.3443135300622</v>
       </c>
       <c r="AB9" s="1">
-        <v>169.2322800137067</v>
+        <v>105.972355679736</v>
       </c>
       <c r="AC9">
-        <v>10.41</v>
+        <v>7.36</v>
       </c>
       <c r="AD9">
-        <v>2.98</v>
+        <v>3.46</v>
       </c>
       <c r="AE9" s="2">
-        <v>0.024600001</v>
+        <v>0.0139</v>
       </c>
       <c r="AF9" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="AG9" s="1">
         <v>3</v>
       </c>
       <c r="AH9" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="AI9">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="AJ9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AK9">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AL9">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AM9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO9" s="2">
-        <v>0.15</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="AP9" s="2">
-        <v>0.5</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="AQ9" s="2">
-        <v>0.3</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="AR9" s="2">
-        <v>0.05</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="AS9" s="2">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="AT9" s="2">
-        <v>0.65</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="AU9" s="2">
-        <v>0.05</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="AV9" s="1">
-        <v>280</v>
+        <v>99</v>
       </c>
       <c r="AW9" s="2">
-        <v>-0.2077639136462666</v>
+        <v>-0.08494315555966353</v>
       </c>
       <c r="AX9" s="1">
-        <v>480.63913</v>
+        <v>108.07692</v>
       </c>
       <c r="AY9" s="2">
-        <v>0.359927368927369</v>
+        <v>-0.001045198262316263</v>
       </c>
       <c r="AZ9" s="1">
-        <v>605</v>
+        <v>124</v>
       </c>
       <c r="BA9" s="2">
-        <v>0.7117958294428882</v>
+        <v>0.1461318051575931</v>
       </c>
       <c r="BB9" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="BC9">
-        <v>4.34</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="BD9">
-        <v>0</v>
+        <v>0.2687682218964468</v>
       </c>
       <c r="BE9">
-        <v>1.3913610334339</v>
+        <v>3.305087036190233</v>
       </c>
       <c r="BF9">
-        <v>-5.109273268506762</v>
+        <v>5.724813594395989</v>
       </c>
       <c r="BG9">
-        <v>-37.23717933293577</v>
+        <v>5.521901702206917</v>
       </c>
       <c r="BH9" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:60">
@@ -2581,103 +2605,103 @@
         <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F10" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G10" s="1">
-        <v>154.38</v>
+        <v>117.15</v>
       </c>
       <c r="H10">
-        <v>82.23</v>
+        <v>33.28</v>
       </c>
       <c r="I10">
-        <v>532.63</v>
+        <v>284.06</v>
       </c>
       <c r="J10">
-        <v>531.86</v>
+        <v>283</v>
       </c>
       <c r="K10" s="1">
-        <v>151.603</v>
+        <v>117.781</v>
       </c>
       <c r="L10" s="2">
-        <v>0.0183175794674247</v>
+        <v>-0.005357400599417565</v>
       </c>
       <c r="M10" s="1">
-        <v>143.4355</v>
+        <v>124.43755</v>
       </c>
       <c r="N10" s="2">
-        <v>0.07630258896856082</v>
+        <v>-0.05856391418828156</v>
       </c>
       <c r="O10">
-        <v>113.17</v>
+        <v>132.24</v>
       </c>
       <c r="P10" s="2">
-        <v>0.3641424405761243</v>
+        <v>-0.1141107078039928</v>
       </c>
       <c r="Q10">
-        <v>0.95</v>
+        <v>0.42</v>
       </c>
       <c r="R10">
-        <v>0.84</v>
+        <v>0.13</v>
       </c>
       <c r="S10">
-        <v>52.85</v>
+        <v>49.45</v>
       </c>
       <c r="T10">
-        <v>65.70999999999999</v>
+        <v>66.14</v>
       </c>
       <c r="U10">
-        <v>60.57</v>
+        <v>55.91</v>
       </c>
       <c r="V10">
-        <v>2.86</v>
+        <v>1.97</v>
       </c>
       <c r="W10">
-        <v>65.66</v>
+        <v>66.55</v>
       </c>
       <c r="X10">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="Y10" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="Z10" s="1">
-        <v>139.7848403930664</v>
+        <v>119.1213340759277</v>
       </c>
       <c r="AA10" s="1">
-        <v>236.1444596010518</v>
+        <v>122.4926823093446</v>
       </c>
       <c r="AB10" s="1">
-        <v>43.42522118508106</v>
+        <v>115.7499858425109</v>
       </c>
       <c r="AC10">
-        <v>9.23</v>
+        <v>3.06</v>
       </c>
       <c r="AD10">
-        <v>2.28</v>
+        <v>1.69</v>
       </c>
       <c r="AE10" s="2">
-        <v>0.0174</v>
+        <v>0.012200001</v>
       </c>
       <c r="AF10" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="AG10" s="1">
         <v>3</v>
       </c>
       <c r="AH10" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="AI10">
         <v>18</v>
@@ -2686,76 +2710,76 @@
         <v>2</v>
       </c>
       <c r="AK10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AL10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AM10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="2">
         <v>0.1111111111111111</v>
       </c>
       <c r="AP10" s="2">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AQ10" s="2">
-        <v>0.2222222222222222</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="AR10" s="2">
-        <v>0.05555555555555555</v>
+        <v>0</v>
       </c>
       <c r="AS10" s="2">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="2">
-        <v>0.6111111111111112</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="AU10" s="2">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AV10" s="1">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="AW10" s="2">
-        <v>-0.34577017748413</v>
+        <v>0.02432778489116512</v>
       </c>
       <c r="AX10" s="1">
-        <v>161.14941</v>
+        <v>137.56667</v>
       </c>
       <c r="AY10" s="2">
-        <v>0.04384900893898169</v>
+        <v>0.1742780196329491</v>
       </c>
       <c r="AZ10" s="1">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="BA10" s="2">
-        <v>0.2112968001036404</v>
+        <v>0.4084507042253521</v>
       </c>
       <c r="BB10" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="BC10">
-        <v>2.86</v>
+        <v>1.97</v>
       </c>
       <c r="BD10">
-        <v>-0.2390921597334411</v>
+        <v>-1.645536961152796</v>
       </c>
       <c r="BE10">
-        <v>-1.449083371922697</v>
+        <v>-1.446959856112716</v>
       </c>
       <c r="BF10">
-        <v>2.360427917856283</v>
+        <v>-1.941909827671604</v>
       </c>
       <c r="BG10">
-        <v>23.99701768328505</v>
+        <v>-15.98376151010624</v>
       </c>
       <c r="BH10" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:60">
@@ -2763,181 +2787,181 @@
         <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E11" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G11" s="1">
-        <v>253.99</v>
+        <v>154.38</v>
       </c>
       <c r="H11">
-        <v>158.2</v>
+        <v>82.23</v>
       </c>
       <c r="I11">
-        <v>622.85</v>
+        <v>532.63</v>
       </c>
       <c r="J11">
-        <v>621.78</v>
+        <v>531.86</v>
       </c>
       <c r="K11" s="1">
-        <v>279.3116</v>
+        <v>151.603</v>
       </c>
       <c r="L11" s="2">
-        <v>-0.0906571728492479</v>
+        <v>0.0183175794674247</v>
       </c>
       <c r="M11" s="1">
-        <v>323.87875</v>
+        <v>143.4355</v>
       </c>
       <c r="N11" s="2">
-        <v>-0.2157867720559006</v>
+        <v>0.07630258896856082</v>
       </c>
       <c r="O11">
-        <v>316.4</v>
+        <v>113.17</v>
       </c>
       <c r="P11" s="2">
-        <v>-0.1972503160556257</v>
+        <v>0.3641424405761243</v>
       </c>
       <c r="Q11">
-        <v>-8.550000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="R11">
-        <v>-10.91</v>
+        <v>0.84</v>
       </c>
       <c r="S11">
-        <v>41.94</v>
+        <v>52.85</v>
       </c>
       <c r="T11">
-        <v>23.02</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="U11">
-        <v>15.09</v>
+        <v>60.57</v>
       </c>
       <c r="V11">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="W11">
-        <v>38.55</v>
+        <v>65.66</v>
       </c>
       <c r="X11">
-        <v>6.24</v>
+        <v>3.4</v>
       </c>
       <c r="Y11" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Z11" s="1">
-        <v>244.4089991251628</v>
+        <v>139.7848403930664</v>
       </c>
       <c r="AA11" s="1">
-        <v>266.1653140137007</v>
+        <v>236.1444596010518</v>
       </c>
       <c r="AB11" s="1">
-        <v>222.6526842366248</v>
+        <v>43.42522118508106</v>
       </c>
       <c r="AC11">
-        <v>12.4</v>
+        <v>9.23</v>
       </c>
       <c r="AD11">
-        <v>3.49</v>
+        <v>2.28</v>
       </c>
       <c r="AE11" s="2">
-        <v>0.0199</v>
+        <v>0.0174</v>
       </c>
       <c r="AF11" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AG11" s="1">
         <v>3</v>
       </c>
       <c r="AH11" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="AI11">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AJ11">
         <v>2</v>
       </c>
       <c r="AK11">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AL11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AM11">
         <v>1</v>
       </c>
       <c r="AN11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO11" s="2">
-        <v>0.08695652173913043</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AP11" s="2">
-        <v>0.5217391304347826</v>
+        <v>0.5</v>
       </c>
       <c r="AQ11" s="2">
-        <v>0.3043478260869565</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AR11" s="2">
-        <v>0.04347826086956522</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="AS11" s="2">
-        <v>0.04347826086956522</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AT11" s="2">
-        <v>0.6086956521739131</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="AU11" s="2">
-        <v>0.08695652173913043</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AV11" s="1">
-        <v>240</v>
+        <v>101</v>
       </c>
       <c r="AW11" s="2">
-        <v>-0.05508090869719284</v>
+        <v>-0.34577017748413</v>
       </c>
       <c r="AX11" s="1">
-        <v>323.41</v>
+        <v>161.14941</v>
       </c>
       <c r="AY11" s="2">
-        <v>0.273317847159337</v>
+        <v>0.04384900893898169</v>
       </c>
       <c r="AZ11" s="1">
-        <v>372</v>
+        <v>187</v>
       </c>
       <c r="BA11" s="2">
-        <v>0.4646245915193511</v>
+        <v>0.2112968001036404</v>
       </c>
       <c r="BB11" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="BC11">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="BD11">
-        <v>-0.415603821176447</v>
+        <v>-0.2390921597334411</v>
       </c>
       <c r="BE11">
-        <v>3.180858675076439</v>
+        <v>-1.449083371922697</v>
       </c>
       <c r="BF11">
-        <v>-11.20472734384094</v>
+        <v>2.360427917856283</v>
       </c>
       <c r="BG11">
-        <v>-21.4834757878568</v>
+        <v>23.99701008489687</v>
       </c>
       <c r="BH11" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:60">
@@ -2945,19 +2969,19 @@
         <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E12" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G12" s="1">
         <v>186.28</v>
@@ -3014,7 +3038,7 @@
         <v>4.85</v>
       </c>
       <c r="Y12" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Z12" s="1">
         <v>199.2776641845703</v>
@@ -3035,13 +3059,13 @@
         <v>0.0307</v>
       </c>
       <c r="AF12" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AG12" s="1">
         <v>3</v>
       </c>
       <c r="AH12" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="AI12">
         <v>7</v>
@@ -3101,7 +3125,7 @@
         <v>0.2185956624436332</v>
       </c>
       <c r="BB12" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="BC12">
         <v>-8.56</v>
@@ -3119,7 +3143,7 @@
         <v>20.88253822272048</v>
       </c>
       <c r="BH12" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:60">
@@ -3127,175 +3151,181 @@
         <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="E13" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="G13" s="1">
-        <v>64.04000000000001</v>
+        <v>37.17</v>
       </c>
       <c r="H13">
-        <v>9.720000000000001</v>
+        <v>11.03</v>
       </c>
       <c r="I13">
-        <v>147.96</v>
+        <v>296.84</v>
       </c>
       <c r="J13">
-        <v>146.95</v>
+        <v>289.42</v>
       </c>
       <c r="K13" s="1">
-        <v>60.1753</v>
+        <v>41.459</v>
       </c>
       <c r="L13" s="2">
-        <v>0.06422402547224536</v>
+        <v>-0.1034516027882969</v>
       </c>
       <c r="M13" s="1">
-        <v>47.90465</v>
+        <v>34.4736</v>
       </c>
       <c r="N13" s="2">
-        <v>0.3368222082824947</v>
+        <v>0.07821637426900598</v>
+      </c>
+      <c r="O13">
+        <v>15.12</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1.458333333333334</v>
       </c>
       <c r="Q13">
-        <v>1.07</v>
+        <v>-1.01</v>
       </c>
       <c r="R13">
-        <v>-0.05</v>
+        <v>-0.44</v>
       </c>
       <c r="S13">
-        <v>57.93</v>
+        <v>39.42</v>
       </c>
       <c r="T13">
-        <v>45.5</v>
+        <v>34.07</v>
       </c>
       <c r="U13">
-        <v>31.61</v>
+        <v>39.07</v>
       </c>
       <c r="V13">
-        <v>14.32</v>
+        <v>-11.54</v>
       </c>
       <c r="W13">
-        <v>62.7</v>
+        <v>48.84</v>
       </c>
       <c r="X13">
-        <v>3.21</v>
+        <v>2.59</v>
       </c>
       <c r="Y13" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Z13" s="1">
-        <v>65.80799916585286</v>
+        <v>36.57066726684571</v>
       </c>
       <c r="AA13" s="1">
-        <v>73.25345352351493</v>
+        <v>41.1129626693033</v>
       </c>
       <c r="AB13" s="1">
-        <v>58.36254480819079</v>
+        <v>32.02837186438812</v>
       </c>
       <c r="AC13">
-        <v>8.9</v>
+        <v>34.82</v>
       </c>
       <c r="AD13">
-        <v>3.13</v>
+        <v>1.65</v>
       </c>
       <c r="AE13" s="2">
-        <v>0.070199996</v>
+        <v>0.1189</v>
       </c>
       <c r="AF13" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="AG13" s="1">
         <v>3</v>
       </c>
       <c r="AH13" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="AI13">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="AJ13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AK13">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AL13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AM13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN13">
         <v>0</v>
       </c>
       <c r="AO13" s="2">
-        <v>0.1923076923076923</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AP13" s="2">
-        <v>0.5384615384615384</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AQ13" s="2">
-        <v>0.2307692307692308</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AR13" s="2">
-        <v>0.03846153846153846</v>
+        <v>0</v>
       </c>
       <c r="AS13" s="2">
         <v>0</v>
       </c>
       <c r="AT13" s="2">
-        <v>0.7307692307692307</v>
+        <v>0.7142857142857142</v>
       </c>
       <c r="AU13" s="2">
-        <v>0.03846153846153846</v>
+        <v>0</v>
       </c>
       <c r="AV13" s="1">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AW13" s="2">
-        <v>-0.4066208619612743</v>
+        <v>-0.1390906645143934</v>
       </c>
       <c r="AX13" s="1">
-        <v>70.68000000000001</v>
+        <v>49.57143</v>
       </c>
       <c r="AY13" s="2">
-        <v>0.10368519675203</v>
+        <v>0.333640839386602</v>
       </c>
       <c r="AZ13" s="1">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="BA13" s="2">
-        <v>0.514678326046221</v>
+        <v>0.8832391713747645</v>
       </c>
       <c r="BB13" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="BC13">
-        <v>14.32</v>
+        <v>-11.54</v>
       </c>
       <c r="BD13">
-        <v>-3.160436148033565</v>
+        <v>1.032881880841676</v>
       </c>
       <c r="BE13">
-        <v>18.61455625971736</v>
+        <v>-9.407752193985591</v>
       </c>
       <c r="BF13">
-        <v>1.731533184078381</v>
+        <v>-14.11737703947048</v>
       </c>
       <c r="BG13">
-        <v>58.98709745850996</v>
+        <v>409.8765207606004</v>
       </c>
       <c r="BH13" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:60">
@@ -3306,112 +3336,112 @@
         <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E14" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F14" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G14" s="1">
-        <v>197.6</v>
+        <v>277.04</v>
       </c>
       <c r="H14">
-        <v>8.880000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="I14">
-        <v>44.95</v>
+        <v>35.73</v>
       </c>
       <c r="J14">
-        <v>43.91</v>
+        <v>35.55</v>
       </c>
       <c r="K14" s="1">
-        <v>174.7192</v>
+        <v>299.5414</v>
       </c>
       <c r="L14" s="2">
-        <v>0.1309575593294841</v>
+        <v>-0.0751194993413264</v>
       </c>
       <c r="M14" s="1">
-        <v>171.8511</v>
+        <v>240.41466</v>
       </c>
       <c r="N14" s="2">
-        <v>0.1498326167245947</v>
+        <v>0.1523423737970057</v>
       </c>
       <c r="O14">
-        <v>153.9</v>
+        <v>166.73</v>
       </c>
       <c r="P14" s="2">
-        <v>0.2839506172839505</v>
+        <v>0.6616085887362805</v>
       </c>
       <c r="Q14">
-        <v>6.66</v>
+        <v>-0.78</v>
       </c>
       <c r="R14">
-        <v>7.94</v>
+        <v>7.56</v>
       </c>
       <c r="S14">
-        <v>70.09999999999999</v>
+        <v>35.31</v>
       </c>
       <c r="T14">
-        <v>88.66</v>
+        <v>45.02</v>
       </c>
       <c r="U14">
-        <v>95.59</v>
+        <v>64.11</v>
       </c>
       <c r="V14">
-        <v>-0.68</v>
+        <v>-15.56</v>
       </c>
       <c r="W14">
-        <v>35.32</v>
+        <v>47.28</v>
       </c>
       <c r="X14">
-        <v>2.39</v>
+        <v>15.17</v>
       </c>
       <c r="Y14" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Z14" s="1">
-        <v>194.5476689656576</v>
+        <v>294.5760030110677</v>
       </c>
       <c r="AA14" s="1">
-        <v>211.602274745569</v>
+        <v>326.1060370961656</v>
       </c>
       <c r="AB14" s="1">
-        <v>177.4930631857461</v>
+        <v>263.0459689259699</v>
       </c>
       <c r="AC14">
-        <v>3.98</v>
+        <v>1.59</v>
       </c>
       <c r="AD14">
-        <v>1.71</v>
+        <v>3.26</v>
       </c>
       <c r="AE14" s="2">
-        <v>0.1018</v>
+        <v>0.0623</v>
       </c>
       <c r="AF14" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AG14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI14">
+        <v>9</v>
+      </c>
+      <c r="AJ14">
+        <v>2</v>
+      </c>
+      <c r="AK14">
         <v>3</v>
       </c>
-      <c r="AH14" t="s">
-        <v>165</v>
-      </c>
-      <c r="AI14">
-        <v>15</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>2</v>
-      </c>
       <c r="AL14">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AM14">
         <v>0</v>
@@ -3420,13 +3450,13 @@
         <v>0</v>
       </c>
       <c r="AO14" s="2">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AP14" s="2">
-        <v>0.1333333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AQ14" s="2">
-        <v>0.8666666666666667</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="AR14" s="2">
         <v>0</v>
@@ -3435,49 +3465,49 @@
         <v>0</v>
       </c>
       <c r="AT14" s="2">
-        <v>0.1333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="AU14" s="2">
         <v>0</v>
       </c>
       <c r="AV14" s="1">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="AW14" s="2">
-        <v>-0.1447368421052631</v>
+        <v>-0.2058908460872077</v>
       </c>
       <c r="AX14" s="1">
-        <v>205.83333</v>
+        <v>321.25</v>
       </c>
       <c r="AY14" s="2">
-        <v>0.04166664979757083</v>
+        <v>0.1595798440658388</v>
       </c>
       <c r="AZ14" s="1">
-        <v>227</v>
+        <v>375</v>
       </c>
       <c r="BA14" s="2">
-        <v>0.1487854251012146</v>
+        <v>0.3535951487149869</v>
       </c>
       <c r="BB14" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="BC14">
-        <v>-0.68</v>
+        <v>-15.56</v>
       </c>
       <c r="BD14">
-        <v>-0.3278657737626103</v>
+        <v>-1.173609026837246</v>
       </c>
       <c r="BE14">
-        <v>-0.4985096191303527</v>
+        <v>-13.98409708926079</v>
       </c>
       <c r="BF14">
-        <v>15.13138756736342</v>
+        <v>-9.226737397050675</v>
       </c>
       <c r="BG14">
-        <v>66.03646967195527</v>
+        <v>19.64586693743027</v>
       </c>
       <c r="BH14" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:60">
@@ -3485,115 +3515,115 @@
         <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E15" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F15" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="G15" s="1">
-        <v>115.19</v>
+        <v>197.6</v>
       </c>
       <c r="H15">
-        <v>8.75</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="I15">
-        <v>75.93000000000001</v>
+        <v>44.95</v>
       </c>
       <c r="J15">
-        <v>72.84</v>
+        <v>43.91</v>
       </c>
       <c r="K15" s="1">
-        <v>108.6928</v>
+        <v>174.7192</v>
       </c>
       <c r="L15" s="2">
-        <v>0.05977580851721542</v>
+        <v>0.1309575593294841</v>
       </c>
       <c r="M15" s="1">
-        <v>109.23185</v>
+        <v>171.8511</v>
       </c>
       <c r="N15" s="2">
-        <v>0.05454590396482348</v>
+        <v>0.1498326167245947</v>
       </c>
       <c r="O15">
-        <v>89.55</v>
+        <v>153.9</v>
       </c>
       <c r="P15" s="2">
-        <v>0.286320491345617</v>
+        <v>0.2839506172839505</v>
       </c>
       <c r="Q15">
-        <v>2.09</v>
+        <v>6.66</v>
       </c>
       <c r="R15">
-        <v>1.81</v>
+        <v>7.94</v>
       </c>
       <c r="S15">
-        <v>60.95</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="T15">
-        <v>84.51000000000001</v>
+        <v>88.66</v>
       </c>
       <c r="U15">
-        <v>76.56</v>
+        <v>95.59</v>
       </c>
       <c r="V15">
-        <v>3.53</v>
+        <v>-0.68</v>
       </c>
       <c r="W15">
-        <v>64.59</v>
+        <v>35.32</v>
       </c>
       <c r="X15">
-        <v>2.46</v>
+        <v>2.39</v>
       </c>
       <c r="Y15" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Z15" s="1">
-        <v>116.1600001017253</v>
+        <v>194.5476689656576</v>
       </c>
       <c r="AA15" s="1">
-        <v>120.5173690508233</v>
+        <v>211.602274745569</v>
       </c>
       <c r="AB15" s="1">
-        <v>111.8026311526272</v>
+        <v>177.4930631857461</v>
       </c>
       <c r="AC15">
-        <v>2.11</v>
+        <v>3.98</v>
       </c>
       <c r="AD15">
-        <v>3.76</v>
+        <v>1.71</v>
       </c>
       <c r="AE15" s="2">
-        <v>0.032899998</v>
+        <v>0.1018</v>
       </c>
       <c r="AF15" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="AG15" s="1">
         <v>3</v>
       </c>
       <c r="AH15" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="AI15">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AJ15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL15">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AM15">
         <v>0</v>
@@ -3602,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="AO15" s="2">
-        <v>0.3636363636363636</v>
+        <v>0</v>
       </c>
       <c r="AP15" s="2">
-        <v>0.3636363636363636</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="AQ15" s="2">
-        <v>0.2727272727272727</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="AR15" s="2">
         <v>0</v>
@@ -3617,49 +3647,49 @@
         <v>0</v>
       </c>
       <c r="AT15" s="2">
-        <v>0.7272727272727273</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="AU15" s="2">
         <v>0</v>
       </c>
       <c r="AV15" s="1">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="AW15" s="2">
-        <v>0.04175709697022313</v>
+        <v>-0.1447368421052631</v>
       </c>
       <c r="AX15" s="1">
-        <v>131.72726</v>
+        <v>205.83333</v>
       </c>
       <c r="AY15" s="2">
-        <v>0.143565066412015</v>
+        <v>0.04166664979757083</v>
       </c>
       <c r="AZ15" s="1">
-        <v>150</v>
+        <v>227</v>
       </c>
       <c r="BA15" s="2">
-        <v>0.3021963712127789</v>
+        <v>0.1487854251012146</v>
       </c>
       <c r="BB15" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="BC15">
-        <v>3.53</v>
+        <v>-0.68</v>
       </c>
       <c r="BD15">
-        <v>-0.4923977922472936</v>
+        <v>-0.3278657737626103</v>
       </c>
       <c r="BE15">
-        <v>-1.597467244309043</v>
+        <v>-0.4985096191303527</v>
       </c>
       <c r="BF15">
-        <v>6.420920837770128</v>
+        <v>15.13138756736342</v>
       </c>
       <c r="BG15">
-        <v>18.47779933740187</v>
+        <v>66.03646967195527</v>
       </c>
       <c r="BH15" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:60">
@@ -3667,109 +3697,115 @@
         <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E16" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F16" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G16" s="1">
-        <v>110.86</v>
+        <v>169.24</v>
       </c>
       <c r="H16">
-        <v>19.03</v>
+        <v>9.77</v>
       </c>
       <c r="I16">
-        <v>171.64</v>
+        <v>57.7</v>
       </c>
       <c r="J16">
-        <v>151.54</v>
+        <v>55.24</v>
       </c>
       <c r="K16" s="1">
-        <v>100.1842</v>
+        <v>152.1136</v>
       </c>
       <c r="L16" s="2">
-        <v>0.106561713324057</v>
+        <v>0.1125895383450265</v>
       </c>
       <c r="M16" s="1">
-        <v>67.96037</v>
+        <v>140.68726</v>
       </c>
       <c r="N16" s="2">
-        <v>0.6312447975194956</v>
+        <v>0.2029518522146213</v>
+      </c>
+      <c r="O16">
+        <v>108.91</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.5539436231750988</v>
       </c>
       <c r="Q16">
-        <v>3.77</v>
+        <v>5.6</v>
       </c>
       <c r="R16">
-        <v>5.85</v>
+        <v>4.72</v>
       </c>
       <c r="S16">
-        <v>51.89</v>
+        <v>74.87</v>
       </c>
       <c r="T16">
-        <v>62.03</v>
+        <v>96.62</v>
       </c>
       <c r="U16">
-        <v>75.45999999999999</v>
+        <v>96.77</v>
       </c>
       <c r="V16">
-        <v>0.52</v>
+        <v>7.17</v>
       </c>
       <c r="W16">
-        <v>45.53</v>
+        <v>93.14</v>
       </c>
       <c r="X16">
-        <v>6.77</v>
+        <v>3.2</v>
       </c>
       <c r="Y16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Z16" s="1">
-        <v>104.2296663920085</v>
+        <v>169.5949991861979</v>
       </c>
       <c r="AA16" s="1">
-        <v>116.3765923331417</v>
+        <v>172.7605538135426</v>
       </c>
       <c r="AB16" s="1">
-        <v>92.08274045087525</v>
+        <v>166.4294445588532</v>
       </c>
       <c r="AC16">
-        <v>7.67</v>
+        <v>1.73</v>
       </c>
       <c r="AD16">
-        <v>1.65</v>
+        <v>3.98</v>
       </c>
       <c r="AE16" s="2">
-        <v>0.052800003</v>
+        <v>0.041199997</v>
       </c>
       <c r="AF16" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="AG16" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH16" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="AI16">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AJ16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK16">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AL16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM16">
         <v>0</v>
@@ -3778,13 +3814,13 @@
         <v>0</v>
       </c>
       <c r="AO16" s="2">
-        <v>0.25</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AP16" s="2">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AQ16" s="2">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR16" s="2">
         <v>0</v>
@@ -3793,49 +3829,49 @@
         <v>0</v>
       </c>
       <c r="AT16" s="2">
-        <v>1</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="AU16" s="2">
         <v>0</v>
       </c>
       <c r="AV16" s="1">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="AW16" s="2">
-        <v>-0.3505322027782789</v>
+        <v>-0.04868825336799816</v>
       </c>
       <c r="AX16" s="1">
-        <v>106.33333</v>
+        <v>173</v>
       </c>
       <c r="AY16" s="2">
-        <v>-0.04083231102291175</v>
+        <v>0.02221696998345539</v>
       </c>
       <c r="AZ16" s="1">
-        <v>140</v>
+        <v>195</v>
       </c>
       <c r="BA16" s="2">
-        <v>0.2628540501533466</v>
+        <v>0.1522098794611202</v>
       </c>
       <c r="BB16" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="BC16">
-        <v>0.52</v>
+        <v>7.17</v>
       </c>
       <c r="BD16">
-        <v>4.594775775768499</v>
+        <v>0.1360931269179006</v>
       </c>
       <c r="BE16">
-        <v>-5.514362157787555</v>
+        <v>1.95181053805064</v>
       </c>
       <c r="BF16">
-        <v>12.65114976622624</v>
+        <v>21.53680825361872</v>
       </c>
       <c r="BG16">
-        <v>248.7260063468689</v>
+        <v>19.46409516445264</v>
       </c>
       <c r="BH16" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:60">
@@ -3843,181 +3879,175 @@
         <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D17" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F17" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G17" s="1">
-        <v>169.24</v>
+        <v>64.04000000000001</v>
       </c>
       <c r="H17">
-        <v>9.77</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="I17">
-        <v>57.7</v>
+        <v>147.96</v>
       </c>
       <c r="J17">
-        <v>55.24</v>
+        <v>146.95</v>
       </c>
       <c r="K17" s="1">
-        <v>152.1136</v>
+        <v>60.1753</v>
       </c>
       <c r="L17" s="2">
-        <v>0.1125895383450265</v>
+        <v>0.06422402547224536</v>
       </c>
       <c r="M17" s="1">
-        <v>140.68726</v>
+        <v>47.90465</v>
       </c>
       <c r="N17" s="2">
-        <v>0.2029518522146213</v>
-      </c>
-      <c r="O17">
-        <v>108.91</v>
-      </c>
-      <c r="P17" s="2">
-        <v>0.5539436231750988</v>
+        <v>0.3368222082824947</v>
       </c>
       <c r="Q17">
-        <v>5.6</v>
+        <v>1.07</v>
       </c>
       <c r="R17">
-        <v>4.72</v>
+        <v>-0.05</v>
       </c>
       <c r="S17">
-        <v>74.87</v>
+        <v>57.93</v>
       </c>
       <c r="T17">
-        <v>96.62</v>
+        <v>45.5</v>
       </c>
       <c r="U17">
-        <v>96.77</v>
+        <v>31.61</v>
       </c>
       <c r="V17">
-        <v>7.17</v>
+        <v>14.32</v>
       </c>
       <c r="W17">
-        <v>93.14</v>
+        <v>62.7</v>
       </c>
       <c r="X17">
-        <v>3.2</v>
+        <v>3.21</v>
       </c>
       <c r="Y17" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="Z17" s="1">
-        <v>169.5949991861979</v>
+        <v>65.80799916585286</v>
       </c>
       <c r="AA17" s="1">
-        <v>172.7605538135426</v>
+        <v>73.25345352351493</v>
       </c>
       <c r="AB17" s="1">
-        <v>166.4294445588532</v>
+        <v>58.36254480819079</v>
       </c>
       <c r="AC17">
-        <v>1.73</v>
+        <v>8.9</v>
       </c>
       <c r="AD17">
-        <v>3.98</v>
+        <v>3.13</v>
       </c>
       <c r="AE17" s="2">
-        <v>0.041199997</v>
+        <v>0.070199996</v>
       </c>
       <c r="AF17" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AG17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH17" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="AI17">
+        <v>26</v>
+      </c>
+      <c r="AJ17">
+        <v>5</v>
+      </c>
+      <c r="AK17">
+        <v>14</v>
+      </c>
+      <c r="AL17">
         <v>6</v>
       </c>
-      <c r="AJ17">
+      <c r="AM17">
         <v>1</v>
       </c>
-      <c r="AK17">
-        <v>4</v>
-      </c>
-      <c r="AL17">
-        <v>1</v>
-      </c>
-      <c r="AM17">
-        <v>0</v>
-      </c>
       <c r="AN17">
         <v>0</v>
       </c>
       <c r="AO17" s="2">
-        <v>0.1666666666666667</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="AP17" s="2">
-        <v>0.6666666666666666</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="AQ17" s="2">
-        <v>0.1666666666666667</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="AR17" s="2">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="AS17" s="2">
         <v>0</v>
       </c>
       <c r="AT17" s="2">
-        <v>0.8333333333333333</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="AU17" s="2">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="AV17" s="1">
-        <v>161</v>
+        <v>38</v>
       </c>
       <c r="AW17" s="2">
-        <v>-0.04868825336799816</v>
+        <v>-0.4066208619612743</v>
       </c>
       <c r="AX17" s="1">
-        <v>173</v>
+        <v>70.68000000000001</v>
       </c>
       <c r="AY17" s="2">
-        <v>0.02221696998345539</v>
+        <v>0.10368519675203</v>
       </c>
       <c r="AZ17" s="1">
-        <v>195</v>
+        <v>97</v>
       </c>
       <c r="BA17" s="2">
-        <v>0.1522098794611202</v>
+        <v>0.514678326046221</v>
       </c>
       <c r="BB17" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="BC17">
-        <v>7.17</v>
+        <v>14.32</v>
       </c>
       <c r="BD17">
-        <v>0.1360931269179006</v>
+        <v>-3.160436148033565</v>
       </c>
       <c r="BE17">
-        <v>1.95181053805064</v>
+        <v>18.61455625971736</v>
       </c>
       <c r="BF17">
-        <v>21.53680825361872</v>
+        <v>1.731533184078381</v>
       </c>
       <c r="BG17">
-        <v>19.46408229702342</v>
+        <v>58.98709745850996</v>
       </c>
       <c r="BH17" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:60">
@@ -4025,181 +4055,181 @@
         <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="E18" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F18" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G18" s="1">
-        <v>277.04</v>
+        <v>44.83</v>
       </c>
       <c r="H18">
-        <v>9.9</v>
+        <v>10.49</v>
       </c>
       <c r="I18">
-        <v>35.73</v>
+        <v>234</v>
       </c>
       <c r="J18">
-        <v>35.55</v>
+        <v>217.64</v>
       </c>
       <c r="K18" s="1">
-        <v>299.5414</v>
+        <v>30.358</v>
       </c>
       <c r="L18" s="2">
-        <v>-0.0751194993413264</v>
+        <v>0.4767112458001185</v>
       </c>
       <c r="M18" s="1">
-        <v>240.41466</v>
+        <v>23.746</v>
       </c>
       <c r="N18" s="2">
-        <v>0.1523423737970057</v>
+        <v>0.8878969089530868</v>
       </c>
       <c r="O18">
-        <v>166.73</v>
+        <v>18.49</v>
       </c>
       <c r="P18" s="2">
-        <v>0.6616085887362805</v>
+        <v>1.424553812871823</v>
       </c>
       <c r="Q18">
-        <v>-0.78</v>
+        <v>4.43</v>
       </c>
       <c r="R18">
-        <v>7.56</v>
+        <v>4.29</v>
       </c>
       <c r="S18">
-        <v>35.31</v>
+        <v>71.09</v>
       </c>
       <c r="T18">
-        <v>45.02</v>
+        <v>87.84</v>
       </c>
       <c r="U18">
-        <v>64.11</v>
+        <v>88.36</v>
       </c>
       <c r="V18">
-        <v>-15.56</v>
+        <v>19.2</v>
       </c>
       <c r="W18">
-        <v>47.28</v>
+        <v>65.62</v>
       </c>
       <c r="X18">
-        <v>15.17</v>
+        <v>2.92</v>
       </c>
       <c r="Y18" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Z18" s="1">
-        <v>294.5760030110677</v>
+        <v>44.37016677856445</v>
       </c>
       <c r="AA18" s="1">
-        <v>326.1060370961656</v>
+        <v>50.00590987491284</v>
       </c>
       <c r="AB18" s="1">
-        <v>263.0459689259699</v>
+        <v>38.73442368221607</v>
       </c>
       <c r="AC18">
-        <v>1.59</v>
+        <v>46.44</v>
       </c>
       <c r="AD18">
-        <v>3.26</v>
+        <v>4.22</v>
       </c>
       <c r="AE18" s="2">
-        <v>0.0623</v>
+        <v>0.28190002</v>
       </c>
       <c r="AF18" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AG18" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI18">
+        <v>23</v>
+      </c>
+      <c r="AJ18">
+        <v>3</v>
+      </c>
+      <c r="AK18">
+        <v>8</v>
+      </c>
+      <c r="AL18">
+        <v>9</v>
+      </c>
+      <c r="AM18">
         <v>2</v>
       </c>
-      <c r="AH18" t="s">
-        <v>166</v>
-      </c>
-      <c r="AI18">
-        <v>9</v>
-      </c>
-      <c r="AJ18">
-        <v>2</v>
-      </c>
-      <c r="AK18">
-        <v>3</v>
-      </c>
-      <c r="AL18">
-        <v>4</v>
-      </c>
-      <c r="AM18">
-        <v>0</v>
-      </c>
       <c r="AN18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO18" s="2">
-        <v>0.2222222222222222</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="AP18" s="2">
-        <v>0.3333333333333333</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="AQ18" s="2">
-        <v>0.4444444444444444</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="AR18" s="2">
-        <v>0</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="AS18" s="2">
-        <v>0</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AT18" s="2">
-        <v>0.5555555555555556</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="AU18" s="2">
-        <v>0</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="AV18" s="1">
-        <v>220</v>
+        <v>10</v>
       </c>
       <c r="AW18" s="2">
-        <v>-0.2058908460872077</v>
+        <v>-0.7769350881106402</v>
       </c>
       <c r="AX18" s="1">
-        <v>321.25</v>
+        <v>34.77</v>
       </c>
       <c r="AY18" s="2">
-        <v>0.1595798440658388</v>
+        <v>-0.2244033013606959</v>
       </c>
       <c r="AZ18" s="1">
-        <v>375</v>
+        <v>48</v>
       </c>
       <c r="BA18" s="2">
-        <v>0.3535951487149869</v>
+        <v>0.0707115770689271</v>
       </c>
       <c r="BB18" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="BC18">
-        <v>-15.56</v>
+        <v>19.2</v>
       </c>
       <c r="BD18">
-        <v>-1.173609026837246</v>
+        <v>0.7189474760475827</v>
       </c>
       <c r="BE18">
-        <v>-13.98409708926079</v>
+        <v>-0.6207022290144297</v>
       </c>
       <c r="BF18">
-        <v>-9.226737397050675</v>
+        <v>66.71626198813685</v>
       </c>
       <c r="BG18">
-        <v>19.64586693743027</v>
+        <v>280.2375061586411</v>
       </c>
       <c r="BH18" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:60">
@@ -4207,19 +4237,19 @@
         <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E19" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F19" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G19" s="1">
         <v>64.78</v>
@@ -4276,7 +4306,7 @@
         <v>3.6</v>
       </c>
       <c r="Y19" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Z19" s="1">
         <v>66.19133313496907</v>
@@ -4297,13 +4327,13 @@
         <v>0.060100004</v>
       </c>
       <c r="AF19" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AG19" s="1">
         <v>3</v>
       </c>
       <c r="AH19" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="AI19">
         <v>15</v>
@@ -4363,7 +4393,7 @@
         <v>0.234949058351343</v>
       </c>
       <c r="BB19" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="BC19">
         <v>9.06</v>
@@ -4381,7 +4411,7 @@
         <v>202.993458008041</v>
       </c>
       <c r="BH19" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:60">
@@ -4389,55 +4419,106 @@
         <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>98</v>
+      </c>
+      <c r="D20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" t="s">
+        <v>133</v>
       </c>
       <c r="G20" s="1">
-        <v>10.12</v>
+        <v>110.86</v>
       </c>
       <c r="H20">
-        <v>0.28</v>
+        <v>19.03</v>
       </c>
       <c r="I20">
-        <v>22.18</v>
+        <v>171.64</v>
       </c>
       <c r="J20">
-        <v>22.15</v>
+        <v>151.54</v>
       </c>
       <c r="K20" s="1">
-        <v>10.1274</v>
+        <v>100.1842</v>
       </c>
       <c r="L20" s="2">
-        <v>-0.0007306909967020674</v>
+        <v>0.106561713324057</v>
       </c>
       <c r="M20" s="1">
-        <v>10.062611</v>
+        <v>67.96037</v>
       </c>
       <c r="N20" s="2">
-        <v>0.00570319174615801</v>
+        <v>0.6312447975194956</v>
+      </c>
+      <c r="Q20">
+        <v>3.77</v>
+      </c>
+      <c r="R20">
+        <v>5.85</v>
+      </c>
+      <c r="S20">
+        <v>51.89</v>
+      </c>
+      <c r="T20">
+        <v>62.03</v>
+      </c>
+      <c r="U20">
+        <v>75.45999999999999</v>
+      </c>
+      <c r="V20">
+        <v>0.52</v>
+      </c>
+      <c r="W20">
+        <v>45.53</v>
+      </c>
+      <c r="X20">
+        <v>6.77</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>104.2296663920085</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>116.3765923331417</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>92.08274045087525</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>7.67</v>
       </c>
       <c r="AD20">
-        <v>0.19</v>
+        <v>1.65</v>
       </c>
       <c r="AE20" s="2">
-        <v>0</v>
+        <v>0.052800003</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>3</v>
       </c>
       <c r="AH20" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AJ20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK20">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AL20">
         <v>0</v>
@@ -4448,70 +4529,181 @@
       <c r="AN20">
         <v>0</v>
       </c>
+      <c r="AO20" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="AP20" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="AQ20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU20" s="2">
+        <v>0</v>
+      </c>
       <c r="AV20" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="AW20" s="2">
-        <v>-1</v>
+        <v>-0.3505322027782789</v>
       </c>
       <c r="AX20" s="1">
-        <v>0</v>
+        <v>106.33333</v>
       </c>
       <c r="AY20" s="2">
-        <v>-1</v>
+        <v>-0.04083231102291175</v>
       </c>
       <c r="AZ20" s="1">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="BA20" s="2">
-        <v>-1</v>
+        <v>0.2628540501533466</v>
       </c>
       <c r="BB20" t="s">
-        <v>169</v>
+        <v>177</v>
+      </c>
+      <c r="BC20">
+        <v>0.52</v>
+      </c>
+      <c r="BD20">
+        <v>4.594775775768499</v>
+      </c>
+      <c r="BE20">
+        <v>-5.514362157787555</v>
+      </c>
+      <c r="BF20">
+        <v>12.65114976622624</v>
+      </c>
+      <c r="BG20">
+        <v>248.7260063468689</v>
       </c>
       <c r="BH20" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:60">
       <c r="A21" s="4" t="s">
         <v>79</v>
       </c>
+      <c r="B21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" t="s">
+        <v>132</v>
+      </c>
       <c r="G21" s="1">
-        <v>10.3</v>
+        <v>115.19</v>
       </c>
       <c r="H21">
-        <v>0.41</v>
+        <v>8.75</v>
+      </c>
+      <c r="I21">
+        <v>75.93000000000001</v>
+      </c>
+      <c r="J21">
+        <v>72.84</v>
       </c>
       <c r="K21" s="1">
-        <v>10.095262</v>
+        <v>108.6928</v>
       </c>
       <c r="L21" s="2">
-        <v>0.0202806029204592</v>
+        <v>0.05977580851721542</v>
       </c>
       <c r="M21" s="1">
-        <v>10.095262</v>
+        <v>109.23185</v>
       </c>
       <c r="N21" s="2">
-        <v>0.0202806029204592</v>
+        <v>0.05454590396482348</v>
+      </c>
+      <c r="O21">
+        <v>89.55</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0.286320491345617</v>
+      </c>
+      <c r="Q21">
+        <v>2.09</v>
+      </c>
+      <c r="R21">
+        <v>1.81</v>
+      </c>
+      <c r="S21">
+        <v>60.95</v>
+      </c>
+      <c r="T21">
+        <v>84.51000000000001</v>
+      </c>
+      <c r="U21">
+        <v>76.56</v>
+      </c>
+      <c r="V21">
+        <v>3.53</v>
+      </c>
+      <c r="W21">
+        <v>64.59</v>
+      </c>
+      <c r="X21">
+        <v>2.46</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>116.1600001017253</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>120.5173690508233</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>111.8026311526272</v>
+      </c>
+      <c r="AC21">
+        <v>2.11</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>3.76</v>
       </c>
       <c r="AE21" s="2">
-        <v>0</v>
+        <v>0.032899998</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>173</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AJ21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM21">
         <v>0</v>
@@ -4519,29 +4711,65 @@
       <c r="AN21">
         <v>0</v>
       </c>
+      <c r="AO21" s="2">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="AP21" s="2">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="AQ21" s="2">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="AR21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="2">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="AU21" s="2">
+        <v>0</v>
+      </c>
       <c r="AV21" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AW21" s="2">
-        <v>-1</v>
+        <v>0.04175709697022313</v>
       </c>
       <c r="AX21" s="1">
-        <v>0</v>
+        <v>131.72726</v>
       </c>
       <c r="AY21" s="2">
-        <v>-1</v>
+        <v>0.143565066412015</v>
       </c>
       <c r="AZ21" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="BA21" s="2">
-        <v>-1</v>
+        <v>0.3021963712127789</v>
       </c>
       <c r="BB21" t="s">
-        <v>169</v>
+        <v>177</v>
+      </c>
+      <c r="BC21">
+        <v>3.53</v>
+      </c>
+      <c r="BD21">
+        <v>-0.4923977922472936</v>
+      </c>
+      <c r="BE21">
+        <v>-1.597467244309043</v>
+      </c>
+      <c r="BF21">
+        <v>6.420920837770128</v>
+      </c>
+      <c r="BG21">
+        <v>18.47779933740187</v>
       </c>
       <c r="BH21" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:60">
@@ -4549,22 +4777,28 @@
         <v>80</v>
       </c>
       <c r="G22" s="1">
-        <v>0.63</v>
+        <v>10.3</v>
+      </c>
+      <c r="H22">
+        <v>0.41</v>
       </c>
       <c r="K22" s="1">
-        <v>0</v>
+        <v>10.095262</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.0202806029204592</v>
       </c>
       <c r="M22" s="1">
-        <v>0</v>
+        <v>10.095262</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0.0202806029204592</v>
       </c>
       <c r="AD22">
         <v>0</v>
       </c>
       <c r="AE22" s="2">
         <v>0</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>167</v>
       </c>
       <c r="AI22">
         <v>0</v>
@@ -4603,108 +4837,36 @@
         <v>-1</v>
       </c>
       <c r="BB22" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="BH22" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:60">
       <c r="A23" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" t="s">
-        <v>114</v>
-      </c>
-      <c r="E23" t="s">
-        <v>125</v>
-      </c>
-      <c r="F23" t="s">
-        <v>127</v>
-      </c>
       <c r="G23" s="1">
-        <v>3.22</v>
-      </c>
-      <c r="H23">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="I23">
-        <v>20.4</v>
+        <v>0.2168</v>
       </c>
       <c r="J23">
-        <v>4.03</v>
+        <v>22.15</v>
       </c>
       <c r="K23" s="1">
-        <v>2.2782</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0.4133965411289616</v>
+        <v>0</v>
       </c>
       <c r="M23" s="1">
-        <v>1.7505</v>
-      </c>
-      <c r="N23" s="2">
-        <v>0.8394744358754643</v>
-      </c>
-      <c r="O23">
-        <v>2.29</v>
-      </c>
-      <c r="P23" s="2">
-        <v>0.406113537117904</v>
-      </c>
-      <c r="Q23">
-        <v>0.3</v>
-      </c>
-      <c r="R23">
-        <v>0.2</v>
-      </c>
-      <c r="S23">
-        <v>69.55</v>
-      </c>
-      <c r="T23">
-        <v>73.44</v>
-      </c>
-      <c r="U23">
-        <v>76.03</v>
-      </c>
-      <c r="V23">
-        <v>39.39</v>
-      </c>
-      <c r="W23">
-        <v>55.21</v>
-      </c>
-      <c r="X23">
-        <v>0.27</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z23" s="1">
-        <v>3.127666624387105</v>
-      </c>
-      <c r="AA23" s="1">
-        <v>3.710225575134539</v>
-      </c>
-      <c r="AB23" s="1">
-        <v>2.54510767363967</v>
-      </c>
-      <c r="AC23">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AD23">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="2">
-        <v>0.0029</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>163</v>
+        <v>0</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>175</v>
       </c>
       <c r="AI23">
         <v>0</v>
@@ -4743,51 +4905,57 @@
         <v>-1</v>
       </c>
       <c r="BB23" t="s">
-        <v>169</v>
-      </c>
-      <c r="BC23">
-        <v>39.39</v>
-      </c>
-      <c r="BD23">
-        <v>-6.666667127378891</v>
-      </c>
-      <c r="BE23">
-        <v>11.80555210621282</v>
-      </c>
-      <c r="BF23">
-        <v>43.11111238267686</v>
-      </c>
-      <c r="BG23">
-        <v>110.9627484207268</v>
+        <v>177</v>
       </c>
       <c r="BH23" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:60">
       <c r="A24" s="4" t="s">
         <v>82</v>
       </c>
+      <c r="B24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" t="s">
+        <v>114</v>
+      </c>
       <c r="G24" s="1">
-        <v>0.2168</v>
+        <v>10.12</v>
+      </c>
+      <c r="H24">
+        <v>0.28</v>
+      </c>
+      <c r="I24">
+        <v>22.18</v>
       </c>
       <c r="J24">
         <v>22.15</v>
       </c>
       <c r="K24" s="1">
-        <v>0</v>
+        <v>10.1274</v>
+      </c>
+      <c r="L24" s="2">
+        <v>-0.0007306909967020674</v>
       </c>
       <c r="M24" s="1">
+        <v>10.062611</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0.00570319174615801</v>
+      </c>
+      <c r="AC24">
         <v>0</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="AE24" s="2">
         <v>0</v>
       </c>
       <c r="AH24" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="AI24">
         <v>0</v>
@@ -4826,10 +4994,10 @@
         <v>-1</v>
       </c>
       <c r="BB24" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="BH24" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:60">
@@ -4858,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="AH25" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="AI25">
         <v>0</v>
@@ -4897,99 +5065,33 @@
         <v>-1</v>
       </c>
       <c r="BB25" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="BH25" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:60">
       <c r="A26" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" t="s">
-        <v>111</v>
-      </c>
       <c r="G26" s="1">
-        <v>1.71</v>
-      </c>
-      <c r="H26">
-        <v>0.05</v>
-      </c>
-      <c r="I26">
-        <v>31.62</v>
-      </c>
-      <c r="J26">
-        <v>18.42</v>
+        <v>0.63</v>
       </c>
       <c r="K26" s="1">
-        <v>1.1764</v>
-      </c>
-      <c r="L26" s="2">
-        <v>0.4535872152329141</v>
+        <v>0</v>
       </c>
       <c r="M26" s="1">
-        <v>0.98475</v>
-      </c>
-      <c r="N26" s="2">
-        <v>0.7364813404417364</v>
-      </c>
-      <c r="O26">
-        <v>1.26</v>
-      </c>
-      <c r="P26" s="2">
-        <v>0.3571428571428571</v>
-      </c>
-      <c r="Q26">
-        <v>0.21</v>
-      </c>
-      <c r="R26">
-        <v>0.22</v>
-      </c>
-      <c r="S26">
-        <v>53.87</v>
-      </c>
-      <c r="T26">
-        <v>66.83</v>
-      </c>
-      <c r="U26">
-        <v>67</v>
-      </c>
-      <c r="V26">
-        <v>20.42</v>
-      </c>
-      <c r="W26">
-        <v>20.28</v>
-      </c>
-      <c r="X26">
-        <v>0.25</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z26" s="1">
-        <v>2.016666658719381</v>
-      </c>
-      <c r="AA26" s="1">
-        <v>2.292529938526825</v>
-      </c>
-      <c r="AB26" s="1">
-        <v>1.740803378911936</v>
-      </c>
-      <c r="AC26">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="AD26">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="2">
-        <v>0.0113</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>164</v>
+        <v>0</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>175</v>
       </c>
       <c r="AI26">
         <v>0</v>
@@ -5028,25 +5130,10 @@
         <v>-1</v>
       </c>
       <c r="BB26" t="s">
-        <v>169</v>
-      </c>
-      <c r="BC26">
-        <v>20.42</v>
-      </c>
-      <c r="BD26">
-        <v>-7.065217003986839</v>
-      </c>
-      <c r="BE26">
-        <v>-16.99028710458683</v>
-      </c>
-      <c r="BF26">
-        <v>71.00000381469727</v>
-      </c>
-      <c r="BG26">
-        <v>184.9999950329465</v>
+        <v>177</v>
       </c>
       <c r="BH26" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:60">
@@ -5054,10 +5141,10 @@
         <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G27" s="1">
         <v>10.33</v>
@@ -5093,7 +5180,7 @@
         <v>0</v>
       </c>
       <c r="AH27" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="AI27">
         <v>0</v>
@@ -5132,10 +5219,10 @@
         <v>-1</v>
       </c>
       <c r="BB27" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="BH27" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:60">
@@ -5143,115 +5230,109 @@
         <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D28" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E28" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F28" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G28" s="1">
-        <v>23.7</v>
+        <v>3.22</v>
       </c>
       <c r="H28">
-        <v>1.48</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I28">
-        <v>62.35</v>
+        <v>20.4</v>
       </c>
       <c r="J28">
-        <v>59.21</v>
+        <v>4.03</v>
       </c>
       <c r="K28" s="1">
-        <v>24.1581</v>
+        <v>2.2782</v>
       </c>
       <c r="L28" s="2">
-        <v>-0.0189625839780447</v>
+        <v>0.4133965411289616</v>
       </c>
       <c r="M28" s="1">
-        <v>23.90415</v>
+        <v>1.7505</v>
       </c>
       <c r="N28" s="2">
-        <v>-0.008540358054982169</v>
+        <v>0.8394744358754643</v>
       </c>
       <c r="O28">
-        <v>10.93</v>
+        <v>2.29</v>
       </c>
       <c r="P28" s="2">
-        <v>1.168344007319305</v>
+        <v>0.406113537117904</v>
       </c>
       <c r="Q28">
-        <v>-0.43</v>
+        <v>0.3</v>
       </c>
       <c r="R28">
-        <v>-0.52</v>
+        <v>0.2</v>
       </c>
       <c r="S28">
-        <v>50.65</v>
+        <v>69.55</v>
       </c>
       <c r="T28">
-        <v>34.39</v>
+        <v>73.44</v>
       </c>
       <c r="U28">
-        <v>27.91</v>
+        <v>76.03</v>
       </c>
       <c r="V28">
-        <v>10.67</v>
+        <v>39.39</v>
       </c>
       <c r="W28">
-        <v>46.73</v>
+        <v>55.21</v>
       </c>
       <c r="X28">
-        <v>2.47</v>
+        <v>0.27</v>
       </c>
       <c r="Y28" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Z28" s="1">
-        <v>26.88500016530355</v>
+        <v>3.127666624387105</v>
       </c>
       <c r="AA28" s="1">
-        <v>33.23950522818716</v>
+        <v>3.710225575134539</v>
       </c>
       <c r="AB28" s="1">
-        <v>20.53049510241994</v>
+        <v>2.54510767363967</v>
       </c>
       <c r="AC28">
-        <v>11.83</v>
+        <v>0.01</v>
       </c>
       <c r="AD28">
-        <v>2.65</v>
+        <v>0.48</v>
       </c>
       <c r="AE28" s="2">
-        <v>0.19870001</v>
+        <v>0.0029</v>
       </c>
       <c r="AF28" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG28" s="1">
-        <v>4</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AI28">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AJ28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM28">
         <v>0</v>
@@ -5259,65 +5340,44 @@
       <c r="AN28">
         <v>0</v>
       </c>
-      <c r="AO28" s="2">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="AP28" s="2">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="AQ28" s="2">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="AR28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT28" s="2">
-        <v>0.7142857142857142</v>
-      </c>
-      <c r="AU28" s="2">
-        <v>0</v>
-      </c>
       <c r="AV28" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AW28" s="2">
-        <v>-0.3670886075949367</v>
+        <v>-1</v>
       </c>
       <c r="AX28" s="1">
-        <v>29.5</v>
+        <v>0</v>
       </c>
       <c r="AY28" s="2">
-        <v>0.2447257383966245</v>
+        <v>-1</v>
       </c>
       <c r="AZ28" s="1">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="BA28" s="2">
-        <v>0.7299578059071731</v>
+        <v>-1</v>
       </c>
       <c r="BB28" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="BC28">
-        <v>10.67</v>
+        <v>39.39</v>
       </c>
       <c r="BD28">
-        <v>8.071137405985022</v>
+        <v>-6.666667127378891</v>
       </c>
       <c r="BE28">
-        <v>12.80342934199378</v>
+        <v>11.80555210621282</v>
       </c>
       <c r="BF28">
-        <v>-9.903058399599287</v>
+        <v>43.11111238267686</v>
       </c>
       <c r="BG28">
-        <v>175.5813919962775</v>
+        <v>110.9627484207268</v>
       </c>
       <c r="BH28" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:60">
@@ -5325,181 +5385,509 @@
         <v>87</v>
       </c>
       <c r="B29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" t="s">
+        <v>115</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1.71</v>
+      </c>
+      <c r="H29">
+        <v>0.05</v>
+      </c>
+      <c r="I29">
+        <v>31.62</v>
+      </c>
+      <c r="J29">
+        <v>18.42</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1.1764</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0.4535872152329141</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0.98475</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0.7364813404417364</v>
+      </c>
+      <c r="O29">
+        <v>1.26</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0.3571428571428571</v>
+      </c>
+      <c r="Q29">
+        <v>0.21</v>
+      </c>
+      <c r="R29">
+        <v>0.22</v>
+      </c>
+      <c r="S29">
+        <v>53.87</v>
+      </c>
+      <c r="T29">
+        <v>66.83</v>
+      </c>
+      <c r="U29">
+        <v>67</v>
+      </c>
+      <c r="V29">
+        <v>20.42</v>
+      </c>
+      <c r="W29">
+        <v>20.28</v>
+      </c>
+      <c r="X29">
+        <v>0.25</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>2.016666658719381</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>2.292529938526825</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>1.740803378911936</v>
+      </c>
+      <c r="AC29">
+        <v>0.09</v>
+      </c>
+      <c r="AD29">
+        <v>0.62</v>
+      </c>
+      <c r="AE29" s="2">
+        <v>0.0113</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AV29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW29" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AX29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY29" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AZ29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA29" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BB29" t="s">
+        <v>177</v>
+      </c>
+      <c r="BC29">
+        <v>20.42</v>
+      </c>
+      <c r="BD29">
+        <v>-7.065217003986839</v>
+      </c>
+      <c r="BE29">
+        <v>-16.99028710458683</v>
+      </c>
+      <c r="BF29">
+        <v>71.00000381469727</v>
+      </c>
+      <c r="BG29">
+        <v>184.9999950329465</v>
+      </c>
+      <c r="BH29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:60">
+      <c r="A30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" t="s">
         <v>92</v>
       </c>
-      <c r="C29" t="s">
-        <v>113</v>
-      </c>
-      <c r="D29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E29" t="s">
-        <v>126</v>
-      </c>
-      <c r="F29" t="s">
-        <v>127</v>
-      </c>
-      <c r="G29" s="1">
+      <c r="C30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30" t="s">
+        <v>133</v>
+      </c>
+      <c r="G30" s="1">
+        <v>23.7</v>
+      </c>
+      <c r="H30">
+        <v>1.48</v>
+      </c>
+      <c r="I30">
+        <v>62.35</v>
+      </c>
+      <c r="J30">
+        <v>59.21</v>
+      </c>
+      <c r="K30" s="1">
+        <v>24.1581</v>
+      </c>
+      <c r="L30" s="2">
+        <v>-0.0189625839780447</v>
+      </c>
+      <c r="M30" s="1">
+        <v>23.90415</v>
+      </c>
+      <c r="N30" s="2">
+        <v>-0.008540358054982169</v>
+      </c>
+      <c r="O30">
+        <v>10.93</v>
+      </c>
+      <c r="P30" s="2">
+        <v>1.168344007319305</v>
+      </c>
+      <c r="Q30">
+        <v>-0.43</v>
+      </c>
+      <c r="R30">
+        <v>-0.52</v>
+      </c>
+      <c r="S30">
+        <v>50.65</v>
+      </c>
+      <c r="T30">
+        <v>34.39</v>
+      </c>
+      <c r="U30">
+        <v>27.91</v>
+      </c>
+      <c r="V30">
+        <v>10.67</v>
+      </c>
+      <c r="W30">
+        <v>46.73</v>
+      </c>
+      <c r="X30">
+        <v>2.47</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>26.88500016530355</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>33.23950522818716</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>20.53049510241994</v>
+      </c>
+      <c r="AC30">
+        <v>11.83</v>
+      </c>
+      <c r="AD30">
+        <v>2.65</v>
+      </c>
+      <c r="AE30" s="2">
+        <v>0.19870001</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>168</v>
+      </c>
+      <c r="AG30" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI30">
+        <v>7</v>
+      </c>
+      <c r="AJ30">
+        <v>3</v>
+      </c>
+      <c r="AK30">
+        <v>2</v>
+      </c>
+      <c r="AL30">
+        <v>2</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30" s="2">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="AP30" s="2">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AQ30" s="2">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AR30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT30" s="2">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="AU30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV30" s="1">
+        <v>15</v>
+      </c>
+      <c r="AW30" s="2">
+        <v>-0.3670886075949367</v>
+      </c>
+      <c r="AX30" s="1">
+        <v>29.5</v>
+      </c>
+      <c r="AY30" s="2">
+        <v>0.2447257383966245</v>
+      </c>
+      <c r="AZ30" s="1">
+        <v>41</v>
+      </c>
+      <c r="BA30" s="2">
+        <v>0.7299578059071731</v>
+      </c>
+      <c r="BB30" t="s">
+        <v>177</v>
+      </c>
+      <c r="BC30">
+        <v>10.67</v>
+      </c>
+      <c r="BD30">
+        <v>8.071137405985022</v>
+      </c>
+      <c r="BE30">
+        <v>12.80342934199378</v>
+      </c>
+      <c r="BF30">
+        <v>-9.903058399599287</v>
+      </c>
+      <c r="BG30">
+        <v>175.5813919962775</v>
+      </c>
+      <c r="BH30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:60">
+      <c r="A31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" s="1">
         <v>12.57</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>8.289999999999999</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>659.83</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>653.55</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K31" s="1">
         <v>11.7858</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L31" s="2">
         <v>0.0665376979076516</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M31" s="1">
         <v>13.2484</v>
       </c>
-      <c r="N29" s="2">
+      <c r="N31" s="2">
         <v>-0.05120618338818272</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>14.25</v>
       </c>
-      <c r="P29" s="2">
+      <c r="P31" s="2">
         <v>-0.1178947368421052</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.33</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.26</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>54.76</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>82.01000000000001</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>73.12</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>7.99</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>67.37</v>
       </c>
-      <c r="X29">
+      <c r="X31">
         <v>0.43</v>
       </c>
-      <c r="Y29" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z29" s="1">
+      <c r="Y31" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z31" s="1">
         <v>13.09133323033651</v>
       </c>
-      <c r="AA29" s="1">
+      <c r="AA31" s="1">
         <v>14.15852186081059</v>
       </c>
-      <c r="AB29" s="1">
+      <c r="AB31" s="1">
         <v>12.02414459986242</v>
       </c>
-      <c r="AC29">
+      <c r="AC31">
         <v>62.46</v>
       </c>
-      <c r="AD29">
+      <c r="AD31">
         <v>0.92</v>
       </c>
-      <c r="AE29" s="2">
+      <c r="AE31" s="2">
         <v>0.0953</v>
       </c>
-      <c r="AF29" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG29" s="1">
+      <c r="AF31" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG31" s="1">
         <v>4</v>
       </c>
-      <c r="AH29" t="s">
-        <v>168</v>
-      </c>
-      <c r="AI29">
+      <c r="AH31" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI31">
         <v>22</v>
       </c>
-      <c r="AJ29">
+      <c r="AJ31">
         <v>3</v>
       </c>
-      <c r="AK29">
+      <c r="AK31">
         <v>9</v>
       </c>
-      <c r="AL29">
+      <c r="AL31">
         <v>9</v>
       </c>
-      <c r="AM29">
+      <c r="AM31">
         <v>1</v>
       </c>
-      <c r="AN29">
-        <v>0</v>
-      </c>
-      <c r="AO29" s="2">
+      <c r="AN31">
+        <v>0</v>
+      </c>
+      <c r="AO31" s="2">
         <v>0.1363636363636364</v>
       </c>
-      <c r="AP29" s="2">
+      <c r="AP31" s="2">
         <v>0.4090909090909091</v>
       </c>
-      <c r="AQ29" s="2">
+      <c r="AQ31" s="2">
         <v>0.4090909090909091</v>
       </c>
-      <c r="AR29" s="2">
+      <c r="AR31" s="2">
         <v>0.04545454545454546</v>
       </c>
-      <c r="AS29" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT29" s="2">
+      <c r="AS31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT31" s="2">
         <v>0.5454545454545454</v>
       </c>
-      <c r="AU29" s="2">
+      <c r="AU31" s="2">
         <v>0.04545454545454546</v>
       </c>
-      <c r="AV29" s="1">
+      <c r="AV31" s="1">
         <v>8</v>
       </c>
-      <c r="AW29" s="2">
+      <c r="AW31" s="2">
         <v>-0.3635640413683373</v>
       </c>
-      <c r="AX29" s="1">
+      <c r="AX31" s="1">
         <v>13.31429</v>
       </c>
-      <c r="AY29" s="2">
+      <c r="AY31" s="2">
         <v>0.05921161495624498</v>
       </c>
-      <c r="AZ29" s="1">
+      <c r="AZ31" s="1">
         <v>20</v>
       </c>
-      <c r="BA29" s="2">
+      <c r="BA31" s="2">
         <v>0.5910898965791567</v>
       </c>
-      <c r="BB29" t="s">
-        <v>169</v>
-      </c>
-      <c r="BC29">
+      <c r="BB31" t="s">
+        <v>177</v>
+      </c>
+      <c r="BC31">
         <v>7.99</v>
       </c>
-      <c r="BD29">
+      <c r="BD31">
         <v>-1.796878847526329</v>
       </c>
-      <c r="BE29">
+      <c r="BE31">
         <v>-1.950078049541076</v>
       </c>
-      <c r="BF29">
+      <c r="BF31">
         <v>-0.8675126790546048</v>
       </c>
-      <c r="BG29">
+      <c r="BG31">
         <v>21.92045764525333</v>
       </c>
-      <c r="BH29" t="s">
-        <v>172</v>
+      <c r="BH31" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5532,6 +5920,8 @@
     <hyperlink ref="A27" r:id="rId26"/>
     <hyperlink ref="A28" r:id="rId27"/>
     <hyperlink ref="A29" r:id="rId28"/>
+    <hyperlink ref="A30" r:id="rId29"/>
+    <hyperlink ref="A31" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
